--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt9a-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.232908333333333</v>
+        <v>0.103667</v>
       </c>
       <c r="H2">
-        <v>9.698725</v>
+        <v>0.311001</v>
       </c>
       <c r="I2">
-        <v>0.5584514397475191</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="J2">
-        <v>0.5584514397475192</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -549,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.06694666666666665</v>
+        <v>0.06694666666666667</v>
       </c>
       <c r="N2">
         <v>0.20084</v>
       </c>
       <c r="O2">
-        <v>0.5868893752684746</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="P2">
-        <v>0.5868893752684747</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="Q2">
-        <v>0.2164324365555555</v>
+        <v>0.006940160093333334</v>
       </c>
       <c r="R2">
-        <v>1.947891929</v>
+        <v>0.06246144084000001</v>
       </c>
       <c r="S2">
-        <v>0.3277492165912017</v>
+        <v>0.008095596999727344</v>
       </c>
       <c r="T2">
-        <v>0.3277492165912018</v>
+        <v>0.008095596999727343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.232908333333333</v>
+        <v>0.103667</v>
       </c>
       <c r="H3">
-        <v>9.698725</v>
+        <v>0.311001</v>
       </c>
       <c r="I3">
-        <v>0.5584514397475191</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="J3">
-        <v>0.5584514397475192</v>
+        <v>0.01587706838992035</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.04712366666666667</v>
+        <v>0.064349</v>
       </c>
       <c r="N3">
-        <v>0.141371</v>
+        <v>0.193047</v>
       </c>
       <c r="O3">
-        <v>0.4131106247315253</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="P3">
-        <v>0.4131106247315254</v>
+        <v>0.4901075689220513</v>
       </c>
       <c r="Q3">
-        <v>0.1523464946638889</v>
+        <v>0.006670867783000001</v>
       </c>
       <c r="R3">
-        <v>1.371118451975</v>
+        <v>0.06003781004700001</v>
       </c>
       <c r="S3">
-        <v>0.2307022231563174</v>
+        <v>0.007781471390193011</v>
       </c>
       <c r="T3">
-        <v>0.2307022231563175</v>
+        <v>0.00778147139019301</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,13 +643,13 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -655,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.556150666666666</v>
+        <v>3.232908333333333</v>
       </c>
       <c r="H4">
-        <v>7.668451999999999</v>
+        <v>9.698725</v>
       </c>
       <c r="I4">
-        <v>0.4415485602524808</v>
+        <v>0.4951344854840667</v>
       </c>
       <c r="J4">
-        <v>0.4415485602524809</v>
+        <v>0.4951344854840667</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06694666666666665</v>
+        <v>0.06694666666666667</v>
       </c>
       <c r="N4">
         <v>0.20084</v>
       </c>
       <c r="O4">
-        <v>0.5868893752684746</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="P4">
-        <v>0.5868893752684747</v>
+        <v>0.5098924310779488</v>
       </c>
       <c r="Q4">
-        <v>0.1711257666311111</v>
+        <v>0.2164324365555556</v>
       </c>
       <c r="R4">
-        <v>1.54013189968</v>
+        <v>1.947891929</v>
       </c>
       <c r="S4">
-        <v>0.2591401586772729</v>
+        <v>0.2524653265140002</v>
       </c>
       <c r="T4">
-        <v>0.259140158677273</v>
+        <v>0.2524653265140002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,185 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.232908333333333</v>
+      </c>
+      <c r="H5">
+        <v>9.698725</v>
+      </c>
+      <c r="I5">
+        <v>0.4951344854840667</v>
+      </c>
+      <c r="J5">
+        <v>0.4951344854840667</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.064349</v>
+      </c>
+      <c r="N5">
+        <v>0.193047</v>
+      </c>
+      <c r="O5">
+        <v>0.4901075689220513</v>
+      </c>
+      <c r="P5">
+        <v>0.4901075689220513</v>
+      </c>
+      <c r="Q5">
+        <v>0.2080344183416667</v>
+      </c>
+      <c r="R5">
+        <v>1.872309765075</v>
+      </c>
+      <c r="S5">
+        <v>0.2426691589700666</v>
+      </c>
+      <c r="T5">
+        <v>0.2426691589700666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.556150666666666</v>
-      </c>
-      <c r="H5">
-        <v>7.668451999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.4415485602524808</v>
-      </c>
-      <c r="J5">
-        <v>0.4415485602524809</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.04712366666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.141371</v>
-      </c>
-      <c r="O5">
-        <v>0.4131106247315253</v>
-      </c>
-      <c r="P5">
-        <v>0.4131106247315254</v>
-      </c>
-      <c r="Q5">
-        <v>0.1204551919657778</v>
-      </c>
-      <c r="R5">
-        <v>1.084096727692</v>
-      </c>
-      <c r="S5">
-        <v>0.1824084015752079</v>
-      </c>
-      <c r="T5">
-        <v>0.182408401575208</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.192778666666667</v>
+      </c>
+      <c r="H6">
+        <v>9.578336</v>
+      </c>
+      <c r="I6">
+        <v>0.4889884461260129</v>
+      </c>
+      <c r="J6">
+        <v>0.4889884461260129</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.06694666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.20084</v>
+      </c>
+      <c r="O6">
+        <v>0.5098924310779488</v>
+      </c>
+      <c r="P6">
+        <v>0.5098924310779488</v>
+      </c>
+      <c r="Q6">
+        <v>0.2137458891377778</v>
+      </c>
+      <c r="R6">
+        <v>1.92371300224</v>
+      </c>
+      <c r="S6">
+        <v>0.2493315075642213</v>
+      </c>
+      <c r="T6">
+        <v>0.2493315075642213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.192778666666667</v>
+      </c>
+      <c r="H7">
+        <v>9.578336</v>
+      </c>
+      <c r="I7">
+        <v>0.4889884461260129</v>
+      </c>
+      <c r="J7">
+        <v>0.4889884461260129</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.064349</v>
+      </c>
+      <c r="N7">
+        <v>0.193047</v>
+      </c>
+      <c r="O7">
+        <v>0.4901075689220513</v>
+      </c>
+      <c r="P7">
+        <v>0.4901075689220513</v>
+      </c>
+      <c r="Q7">
+        <v>0.2054521144213333</v>
+      </c>
+      <c r="R7">
+        <v>1.849069029792</v>
+      </c>
+      <c r="S7">
+        <v>0.2396569385617916</v>
+      </c>
+      <c r="T7">
+        <v>0.2396569385617916</v>
       </c>
     </row>
   </sheetData>
